--- a/data/case1/5/Q2_13.xlsx
+++ b/data/case1/5/Q2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.10346336536547085</v>
+        <v>0.11327129920958612</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999458604236</v>
+        <v>-0.0059999999397959414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999581077361</v>
+        <v>0.028223395153343489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999207451822</v>
+        <v>-0.0079999999079340967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999639631625</v>
+        <v>-0.0029999999527037247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.01460912617634591</v>
+        <v>-0.0019999999513693467</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998965092374</v>
+        <v>-0.0099999998704403126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998931559198</v>
+        <v>-0.0099999998650446287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999606770125</v>
+        <v>-0.0019999999371358435</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999572579696</v>
+        <v>-0.0019999999304616267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999481864492</v>
+        <v>-0.002999999919755858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999431701845</v>
+        <v>-0.0034999999133540349</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999406295501</v>
+        <v>-0.0034999999068610066</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999000230915</v>
+        <v>-0.0079999998607727107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996245969669</v>
+        <v>-0.00099999992842114693</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999536945978</v>
+        <v>-0.0019999999174102889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.0089761246821629115</v>
+        <v>-0.001999999915717865</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999363997674</v>
+        <v>-0.0039999998955986271</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999633768546</v>
+        <v>-0.0039999999592792435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999603299585</v>
+        <v>-0.0039999999561164401</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999599062974</v>
+        <v>-0.003999999955652811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999595812241</v>
+        <v>-0.0039999999552522425</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999461682876</v>
+        <v>-0.0049999999382794869</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999806337598</v>
+        <v>-0.01999999978470246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999803574475</v>
+        <v>-0.019999999781670219</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999649288895</v>
+        <v>-0.0024999999462398392</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999652144389</v>
+        <v>0.018884908676248369</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999713595784</v>
+        <v>-0.0019999999461557394</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999282188696</v>
+        <v>-0.0069999998939733743</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0015666056440997167</v>
+        <v>-0.059999999372432278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999333472118</v>
+        <v>0.062499643016703743</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999079400936</v>
+        <v>-0.0099999998722370975</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.040451044367161515</v>
+        <v>-0.0039999999310307288</v>
       </c>
     </row>
   </sheetData>
